--- a/biology/Botanique/Tristachyideae/Tristachyideae.xlsx
+++ b/biology/Botanique/Tristachyideae/Tristachyideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tristachyideae sont une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales d'Afrique, d'Asie et d'Amérique du Sud.
 Elle regroupe environ 70 espèces en huit genres.
-Cette tribu appartient à une lignée basale au sein de la famille des Poaceae, et ses genres étaient précédemment classés dans les tribus des Arundinelleae ou des Paniceae, dans la sous-famille des Arundinoideae, ou dans la désormais obsolète sous-famille des Centothecoideae[2].
-Les espèces de cette tribu utilisent la voie photosynthétique en C4[3]
+Cette tribu appartient à une lignée basale au sein de la famille des Poaceae, et ses genres étaient précédemment classés dans les tribus des Arundinelleae ou des Paniceae, dans la sous-famille des Arundinoideae, ou dans la désormais obsolète sous-famille des Centothecoideae.
+Les espèces de cette tribu utilisent la voie photosynthétique en C4
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Soreng et al. (A worldwide phylogenetic classification of the Poaceae (Gramineae))[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Soreng et al. (A worldwide phylogenetic classification of the Poaceae (Gramineae)) :
 Danthoniopsis
 Dilophotriche
 Gilgiochloa
